--- a/data/baidu.xlsx
+++ b/data/baidu.xlsx
@@ -14,41 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>A</t>
+    <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
+    <t>selenium 灰蓝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
+    <t>Python selenium</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,45 +374,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
